--- a/medicine/Sexualité et sexologie/Twist_of_Faith/Twist_of_Faith.xlsx
+++ b/medicine/Sexualité et sexologie/Twist_of_Faith/Twist_of_Faith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Twist of Faith (littéralement Entorse à la foi) est un film documentaire américain réalisé par Kirby Dick en 2004. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film relate l'histoire de Tony Comes qui, à la trentaine, a décidé de révéler la vérité sur les agressions sexuelles qu'il a subies par un prêtre catholique quand il avait 14 ans.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Twist of Faith
 Réalisation : Kirby Dick
@@ -583,9 +599,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film fut nommé à l'Oscar du meilleur film documentaire[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film fut nommé à l'Oscar du meilleur film documentaire.
 </t>
         </is>
       </c>
